--- a/Data/EC/NIT-8904014271.xlsx
+++ b/Data/EC/NIT-8904014271.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{821669B2-A785-47C7-BDD8-B529260151CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B35FBB8-4CC6-4F8E-88BD-C05029DE405F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1E76E3BF-6CCF-40A5-B62E-F7CEB0CC0B77}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2469C85B-51FE-41E5-8DF7-E5DD8957889C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="100">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -74,244 +74,235 @@
     <t>1702</t>
   </si>
   <si>
-    <t>11077785</t>
-  </si>
-  <si>
-    <t>ORLANDO MIGUEL NISPERUZA DIAZ</t>
+    <t>7602478</t>
+  </si>
+  <si>
+    <t>JOER LUIS PALENCIA PEREZ</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>1044921816</t>
+  </si>
+  <si>
+    <t>ENRIQUE PUENTE AGUILAR</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>7602478</t>
-  </si>
-  <si>
-    <t>JOER LUIS PALENCIA PEREZ</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1044921816</t>
-  </si>
-  <si>
-    <t>ENRIQUE PUENTE AGUILAR</t>
-  </si>
-  <si>
-    <t>1143408177</t>
-  </si>
-  <si>
-    <t>KAREN PATRICIA GUZMAN BELLO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -410,7 +401,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -423,9 +416,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -625,23 +616,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -669,10 +660,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -725,7 +716,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB6CCEA3-10C0-5B3D-F665-C561A3F7F8E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21BC8B1F-DE9A-BCC5-C1CA-89E4443F58BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1076,8 +1067,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B7544D-1641-409A-9ACD-31C6B4D334BB}">
-  <dimension ref="B2:J102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7D296B-8E54-45BC-A782-C8D5A2DB3882}">
+  <dimension ref="B2:J96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1088,7 +1079,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1101,7 +1092,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1146,7 +1137,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1178,12 +1169,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>5058489</v>
+        <v>4717779</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1194,17 +1185,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F13" s="5">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1231,13 +1222,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1257,7 +1248,7 @@
         <v>107908</v>
       </c>
       <c r="G16" s="18">
-        <v>2697700</v>
+        <v>5370265</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1277,10 +1268,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>2994</v>
+        <v>62772</v>
       </c>
       <c r="G17" s="18">
-        <v>2245821</v>
+        <v>1952200</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1291,13 +1282,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>62772</v>
@@ -1314,13 +1305,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F19" s="18">
         <v>62772</v>
@@ -1337,13 +1328,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>62772</v>
@@ -1360,13 +1351,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>62772</v>
@@ -1383,13 +1374,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>62772</v>
@@ -1406,13 +1397,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>62772</v>
@@ -1429,13 +1420,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>62772</v>
@@ -1452,13 +1443,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>62772</v>
@@ -1475,13 +1466,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>62772</v>
@@ -1498,13 +1489,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>62772</v>
@@ -1521,13 +1512,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>62772</v>
@@ -1544,13 +1535,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>62772</v>
@@ -1567,13 +1558,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>62772</v>
@@ -1590,13 +1581,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>62772</v>
@@ -1613,13 +1604,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>62772</v>
@@ -1636,13 +1627,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>62772</v>
@@ -1659,13 +1650,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>62772</v>
@@ -1682,13 +1673,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>62772</v>
@@ -1705,13 +1696,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>62772</v>
@@ -1728,13 +1719,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>62772</v>
@@ -1751,13 +1742,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>62772</v>
@@ -1774,13 +1765,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>62772</v>
@@ -1797,13 +1788,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
         <v>62772</v>
@@ -1820,13 +1811,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>62772</v>
@@ -1843,13 +1834,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
         <v>62772</v>
@@ -1866,13 +1857,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
         <v>62772</v>
@@ -1889,13 +1880,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
         <v>62772</v>
@@ -1912,13 +1903,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
         <v>62772</v>
@@ -1935,13 +1926,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
         <v>62772</v>
@@ -1958,19 +1949,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F47" s="18">
-        <v>62772</v>
+        <v>27515</v>
       </c>
       <c r="G47" s="18">
-        <v>1952200</v>
+        <v>2601456</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1981,10 +1972,10 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>46</v>
@@ -2004,10 +1995,10 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>47</v>
@@ -2027,10 +2018,10 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>48</v>
@@ -2050,10 +2041,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>49</v>
@@ -2073,10 +2064,10 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>50</v>
@@ -2096,10 +2087,10 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>51</v>
@@ -2119,10 +2110,10 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>52</v>
@@ -2142,10 +2133,10 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>53</v>
@@ -2165,10 +2156,10 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>54</v>
@@ -2188,10 +2179,10 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>55</v>
@@ -2211,10 +2202,10 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>56</v>
@@ -2234,10 +2225,10 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>57</v>
@@ -2257,10 +2248,10 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>58</v>
@@ -2280,10 +2271,10 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>59</v>
@@ -2303,10 +2294,10 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>60</v>
@@ -2326,10 +2317,10 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>61</v>
@@ -2349,10 +2340,10 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>62</v>
@@ -2372,10 +2363,10 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>63</v>
@@ -2395,10 +2386,10 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>64</v>
@@ -2418,10 +2409,10 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>65</v>
@@ -2441,10 +2432,10 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>66</v>
@@ -2464,10 +2455,10 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>67</v>
@@ -2487,10 +2478,10 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>68</v>
@@ -2510,10 +2501,10 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>69</v>
@@ -2533,10 +2524,10 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>70</v>
@@ -2556,10 +2547,10 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>71</v>
@@ -2579,10 +2570,10 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>72</v>
@@ -2602,10 +2593,10 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>73</v>
@@ -2625,10 +2616,10 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>74</v>
@@ -2648,10 +2639,10 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
         <v>75</v>
@@ -2671,10 +2662,10 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E78" s="16" t="s">
         <v>76</v>
@@ -2694,10 +2685,10 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
         <v>77</v>
@@ -2717,10 +2708,10 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
         <v>78</v>
@@ -2740,10 +2731,10 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
         <v>79</v>
@@ -2763,10 +2754,10 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E82" s="16" t="s">
         <v>80</v>
@@ -2786,10 +2777,10 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
         <v>81</v>
@@ -2809,10 +2800,10 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E84" s="16" t="s">
         <v>82</v>
@@ -2832,10 +2823,10 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
         <v>83</v>
@@ -2855,10 +2846,10 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>84</v>
@@ -2878,10 +2869,10 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
         <v>85</v>
@@ -2901,10 +2892,10 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>86</v>
@@ -2924,10 +2915,10 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
         <v>87</v>
@@ -2943,194 +2934,56 @@
       <c r="J89" s="20"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="16" t="s">
+      <c r="B90" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D90" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F90" s="18">
-        <v>27515</v>
-      </c>
-      <c r="G90" s="18">
-        <v>2426731</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B91" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="18">
-        <v>66748</v>
-      </c>
-      <c r="G91" s="18">
-        <v>1668693</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B92" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F92" s="18">
-        <v>66748</v>
-      </c>
-      <c r="G92" s="18">
-        <v>1668693</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B93" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" s="18">
-        <v>66748</v>
-      </c>
-      <c r="G93" s="18">
-        <v>1668693</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B94" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" s="18">
-        <v>66748</v>
-      </c>
-      <c r="G94" s="18">
-        <v>1668693</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="F90" s="24">
+        <v>62772</v>
+      </c>
+      <c r="G90" s="24">
+        <v>1952200</v>
+      </c>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="26"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B95" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F95" s="18">
-        <v>66748</v>
-      </c>
-      <c r="G95" s="18">
-        <v>1668693</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="B95" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" s="32"/>
+      <c r="H95" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B96" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D96" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F96" s="24">
-        <v>66748</v>
-      </c>
-      <c r="G96" s="24">
-        <v>1668693</v>
-      </c>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B101" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C101" s="32"/>
-      <c r="H101" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C102" s="32"/>
-      <c r="H102" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
+      <c r="B96" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" s="32"/>
+      <c r="H96" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H95:J95"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
